--- a/现金流量表/605377.xlsx
+++ b/现金流量表/605377.xlsx
@@ -724,14 +724,14 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>004</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>001</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
       <c r="L2" t="inlineStr">
         <is>
           <t>2</t>
@@ -744,53 +744,51 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2018-12-31 00:00:00</t>
+          <t>2019-09-30 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>231658065.08</v>
+        <v>165540920.04</v>
       </c>
       <c r="P2" t="n">
-        <v>302.322625051</v>
+        <v>222.7763995116</v>
       </c>
       <c r="Q2" t="n">
-        <v>1531175759.31</v>
+        <v>1130931107.76</v>
       </c>
       <c r="R2" t="n">
-        <v>1998.2428619925</v>
+        <v>1521.9485322512</v>
       </c>
       <c r="S2" t="n">
-        <v>47870822.12</v>
+        <v>40029174.83</v>
       </c>
       <c r="T2" t="n">
-        <v>62.4732516939</v>
+        <v>53.8691910247</v>
       </c>
       <c r="U2" t="n">
-        <v>-89985223.72</v>
+        <v>-154231467.15</v>
       </c>
       <c r="V2" t="n">
-        <v>-117.4341546945</v>
+        <v>-207.5567233453</v>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="n">
-        <v>44331270.07</v>
+        <v>44077184.82</v>
       </c>
       <c r="Z2" t="n">
-        <v>57.8540010458</v>
+        <v>59.3167932885</v>
       </c>
       <c r="AA2" t="n">
-        <v>-53879334.8</v>
+        <v>-84128592.59999999</v>
       </c>
       <c r="AB2" t="n">
-        <v>-70.3145902868</v>
+        <v>-113.2159042663</v>
       </c>
       <c r="AC2" t="n">
-        <v>76626109.29000001</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>840.0640038649</v>
-      </c>
+        <v>-74308104.63</v>
+      </c>
+      <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr"/>

--- a/现金流量表/605377.xlsx
+++ b/现金流量表/605377.xlsx
@@ -724,7 +724,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>004</t>
+          <t>001</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -739,56 +739,58 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2020-12-09 00:00:00</t>
+          <t>2020-12-16 00:00:00</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2019-09-30 00:00:00</t>
+          <t>2018-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>165540920.04</v>
+        <v>231658065.08</v>
       </c>
       <c r="P2" t="n">
-        <v>222.7763995116</v>
+        <v>302.322625051</v>
       </c>
       <c r="Q2" t="n">
-        <v>1130931107.76</v>
+        <v>1531175759.31</v>
       </c>
       <c r="R2" t="n">
-        <v>1521.9485322512</v>
+        <v>1998.2428619925</v>
       </c>
       <c r="S2" t="n">
-        <v>40029174.83</v>
+        <v>47870822.12</v>
       </c>
       <c r="T2" t="n">
-        <v>53.8691910247</v>
+        <v>62.4732516939</v>
       </c>
       <c r="U2" t="n">
-        <v>-154231467.15</v>
+        <v>-89985223.72</v>
       </c>
       <c r="V2" t="n">
-        <v>-207.5567233453</v>
+        <v>-117.4341546945</v>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="n">
-        <v>44077184.82</v>
+        <v>44331270.07</v>
       </c>
       <c r="Z2" t="n">
-        <v>59.3167932885</v>
+        <v>57.8540010458</v>
       </c>
       <c r="AA2" t="n">
-        <v>-84128592.59999999</v>
+        <v>-53879334.8</v>
       </c>
       <c r="AB2" t="n">
-        <v>-113.2159042663</v>
+        <v>-70.3145902868</v>
       </c>
       <c r="AC2" t="n">
-        <v>-74308104.63</v>
-      </c>
-      <c r="AD2" t="inlineStr"/>
+        <v>76626109.29000001</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>840.0640038649</v>
+      </c>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr"/>

--- a/现金流量表/605377.xlsx
+++ b/现金流量表/605377.xlsx
@@ -744,52 +744,52 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2018-12-31 00:00:00</t>
+          <t>2017-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>231658065.08</v>
+        <v>-196771045.85</v>
       </c>
       <c r="P2" t="n">
-        <v>302.322625051</v>
+        <v>-1900.4379758512</v>
       </c>
       <c r="Q2" t="n">
-        <v>1531175759.31</v>
+        <v>1010218615.95</v>
       </c>
       <c r="R2" t="n">
-        <v>1998.2428619925</v>
+        <v>9756.8105783551</v>
       </c>
       <c r="S2" t="n">
-        <v>47870822.12</v>
+        <v>39946943.73</v>
       </c>
       <c r="T2" t="n">
-        <v>62.4732516939</v>
+        <v>385.8122954815</v>
       </c>
       <c r="U2" t="n">
-        <v>-89985223.72</v>
+        <v>-10935810.88</v>
       </c>
       <c r="V2" t="n">
-        <v>-117.4341546945</v>
+        <v>-105.6193516851</v>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="n">
-        <v>44331270.07</v>
+        <v>31659766.42</v>
       </c>
       <c r="Z2" t="n">
-        <v>57.8540010458</v>
+        <v>305.773759301</v>
       </c>
       <c r="AA2" t="n">
-        <v>-53879334.8</v>
+        <v>198772977.35</v>
       </c>
       <c r="AB2" t="n">
-        <v>-70.3145902868</v>
+        <v>1919.772866466</v>
       </c>
       <c r="AC2" t="n">
-        <v>76626109.29000001</v>
+        <v>-10353984.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>840.0640038649</v>
+        <v>-353.2882313242</v>
       </c>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
